--- a/biology/Médecine/Masitinib/Masitinib.xlsx
+++ b/biology/Médecine/Masitinib/Masitinib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le masitinib est un inhibiteur de tyrosine kinase en cours de test comme médicament.
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est inhibiteur spécifique du CD117[2] (appelé aussi KIT).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est inhibiteur spécifique du CD117 (appelé aussi KIT).
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il améliore les symptômes de la mastocytose systémique humaine[3] mais également l'évolution de la mastocytose canine[4].
-Le masitinib constitue aussi une option thérapeutique potentielle pour l’asthme sévère non contrôlé[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il améliore les symptômes de la mastocytose systémique humaine mais également l'évolution de la mastocytose canine.
+Le masitinib constitue aussi une option thérapeutique potentielle pour l’asthme sévère non contrôlé.
 Il serait également une option thérapeutique pour la Sclérose Latérale Amyotrophie (SLA) grâce à une action de neuroprotection en inhibant l'activité de la migroglie, des macrophages et des mastocytes dans les systèmes nerveux central et périphérique pour atténuer la neuro-inflammation. Dans une SLA, le mastinib pourrait réduire la prolifération et la migration microgliales induites par le M-CSF, diminuer les cellules gliales aberrantes, inhiber la neuro-inflammation et prolonger la survie post-paralysie.
-AB Science a annoncé les résultats de l'étude de phase 2B/3 (AB09004 - NCT01872598)[6] évaluant le masitinib chez des patients atteints de la maladie d'Alzheimer, sous sa forme légère ou modérée : amélioration du score ADAS-Cog (en).
+AB Science a annoncé les résultats de l'étude de phase 2B/3 (AB09004 - NCT01872598) évaluant le masitinib chez des patients atteints de la maladie d'Alzheimer, sous sa forme légère ou modérée : amélioration du score ADAS-Cog (en).
 </t>
         </is>
       </c>
